--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292311.2488514403</v>
+        <v>287602.579814244</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6910428.155560139</v>
+        <v>6037395.839817923</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13105198.29760688</v>
+        <v>12249539.32494794</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6287203.958197077</v>
+        <v>6646427.27015918</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.70120739332342</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V2" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="W2" t="n">
-        <v>229.9609751381512</v>
+        <v>8.783601537963911</v>
       </c>
       <c r="X2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +740,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -795,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2553380472942808</v>
+        <v>149.403026182803</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -817,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>93.52529077486065</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>78.9862121146507</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>164.9366423243502</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +977,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>51.19654899594993</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.2553380472942808</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>131.6846499321097</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>139.4038155149885</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -1190,10 +1192,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="V8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>8.783601537963911</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>51.31607078901843</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>48.89338144820752</v>
@@ -1260,16 +1262,16 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>125.5823675414104</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="10">
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.761703922407411</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -1348,7 +1350,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="V10" t="n">
-        <v>229.9609751381512</v>
+        <v>109.0606995868098</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,64 +1381,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H11" t="n">
+        <v>202.5496269016834</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="I11" t="n">
-        <v>37.70120739332342</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>164.8484195083599</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="V11" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>82.78884068401464</v>
+        <v>92.98938547511922</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.761703922407411</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
         <v>200.7879229792761</v>
@@ -1585,7 +1587,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="V13" t="n">
-        <v>229.9609751381512</v>
+        <v>109.0606995868097</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>202.5496269016835</v>
+      </c>
+      <c r="E14" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79.3667956667111</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1740,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -1752,7 +1754,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="16">
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>109.0606995868097</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>316.5487336740557</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U18" t="n">
         <v>207.9625118881446</v>
@@ -1989,7 +1991,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>48.92535853381431</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>34.10037796221474</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>79.88764742793462</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,10 +2095,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>115.6678797944008</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>188.9140558629152</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I21" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820737</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>11.61260049965499</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.8812695548171</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.41610779927207</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>304.007403971462</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2479,25 +2481,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>164.6905677185655</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,13 +2614,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>133.5114010687427</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2716,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>94.3311305156637</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>297.6328493298827</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>119.2137282546391</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2965,10 +2967,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>56.34012087231135</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>167.7003943505558</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>197.8422002085939</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -3044,10 +3046,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>354.5654092500438</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>129.6022067968812</v>
       </c>
       <c r="G34" t="n">
-        <v>18.3571571641426</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>304.007403971462</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3272,13 +3274,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.7480363891213</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>10.85875618177483</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>126.7690031786582</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>235.4551847859273</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>45.98403425310195</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>70.99069090147016</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>86.64940239199063</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>304.0074039714629</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3746,7 +3748,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>310.0392916174779</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
         <v>133.5813703291298</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>116.8763835457725</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9562575958679</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>229.9609751381512</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>8.994403805265465</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>229.9609751381512</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>48.92535853381442</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
         <v>207.9625118881446</v>
@@ -4122,7 +4124,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4135,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4156,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93630041312261</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>229.9609751381512</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4328,52 +4330,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K2" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L2" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="M2" t="n">
-        <v>246.0582433978217</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N2" t="n">
-        <v>464.5211697790654</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O2" t="n">
-        <v>692.182535165835</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P2" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q2" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R2" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S2" t="n">
-        <v>753.3303454936552</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T2" t="n">
-        <v>753.3303454936552</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U2" t="n">
-        <v>753.3303454936552</v>
+        <v>259.553016067734</v>
       </c>
       <c r="V2" t="n">
-        <v>521.0465322227953</v>
+        <v>27.26920279687423</v>
       </c>
       <c r="W2" t="n">
-        <v>288.7627189519355</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X2" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y2" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.0511084509599</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C3" t="n">
         <v>18.39687801105209</v>
@@ -4410,16 +4412,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K3" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L3" t="n">
-        <v>473.7196087845913</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M3" t="n">
-        <v>692.182535165835</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N3" t="n">
-        <v>692.182535165835</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O3" t="n">
         <v>692.182535165835</v>
@@ -4443,16 +4445,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V3" t="n">
-        <v>919.5859833331155</v>
+        <v>768.9317528932077</v>
       </c>
       <c r="W3" t="n">
-        <v>689.4687374664023</v>
+        <v>538.8145070264945</v>
       </c>
       <c r="X3" t="n">
-        <v>500.161659816414</v>
+        <v>349.5074293765062</v>
       </c>
       <c r="Y3" t="n">
-        <v>320.8474428919212</v>
+        <v>170.1932124520134</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>919.8439005526046</v>
+        <v>48.77514818495013</v>
       </c>
       <c r="C4" t="n">
-        <v>749.6387826185938</v>
+        <v>48.77514818495013</v>
       </c>
       <c r="D4" t="n">
-        <v>594.0056695211085</v>
+        <v>48.77514818495013</v>
       </c>
       <c r="E4" t="n">
-        <v>438.446857380311</v>
+        <v>48.77514818495013</v>
       </c>
       <c r="F4" t="n">
-        <v>281.120922593284</v>
+        <v>48.77514818495013</v>
       </c>
       <c r="G4" t="n">
-        <v>112.8668686927295</v>
+        <v>48.77514818495013</v>
       </c>
       <c r="H4" t="n">
-        <v>112.8668686927295</v>
+        <v>48.77514818495013</v>
       </c>
       <c r="I4" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495013</v>
       </c>
       <c r="J4" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K4" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M4" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N4" t="n">
-        <v>633.8407713642671</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O4" t="n">
         <v>796.5455384059751</v>
@@ -4510,28 +4512,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R4" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S4" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T4" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U4" t="n">
-        <v>919.8439005526046</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="V4" t="n">
-        <v>919.8439005526046</v>
+        <v>48.77514818495013</v>
       </c>
       <c r="W4" t="n">
-        <v>919.8439005526046</v>
+        <v>48.77514818495013</v>
       </c>
       <c r="X4" t="n">
-        <v>919.8439005526046</v>
+        <v>48.77514818495013</v>
       </c>
       <c r="Y4" t="n">
-        <v>919.8439005526046</v>
+        <v>48.77514818495013</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C5" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D5" t="n">
         <v>18.39687801105209</v>
@@ -4565,25 +4567,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J5" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K5" t="n">
-        <v>390.7080163066498</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L5" t="n">
-        <v>618.3693816934194</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M5" t="n">
-        <v>846.030747080189</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N5" t="n">
-        <v>919.8439005526046</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O5" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P5" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q5" t="n">
         <v>919.8439005526046</v>
@@ -4601,16 +4603,16 @@
         <v>715.2483178236314</v>
       </c>
       <c r="V5" t="n">
-        <v>715.2483178236314</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W5" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X5" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y5" t="n">
-        <v>715.2483178236314</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>588.7333491871505</v>
+        <v>169.0511084509599</v>
       </c>
       <c r="C6" t="n">
-        <v>588.7333491871505</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D6" t="n">
-        <v>537.0196633326556</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E6" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F6" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G6" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H6" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I6" t="n">
         <v>18.39687801105209</v>
@@ -4650,16 +4652,16 @@
         <v>359.1732256175491</v>
       </c>
       <c r="L6" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M6" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N6" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O6" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P6" t="n">
         <v>919.8439005526046</v>
@@ -4680,16 +4682,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V6" t="n">
-        <v>919.8439005526046</v>
+        <v>919.5859833331155</v>
       </c>
       <c r="W6" t="n">
-        <v>919.8439005526046</v>
+        <v>689.4687374664023</v>
       </c>
       <c r="X6" t="n">
-        <v>919.8439005526046</v>
+        <v>500.161659816414</v>
       </c>
       <c r="Y6" t="n">
-        <v>740.5296836281118</v>
+        <v>320.8474428919212</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.39687801105209</v>
+        <v>795.9429111851817</v>
       </c>
       <c r="C7" t="n">
-        <v>18.39687801105209</v>
+        <v>795.9429111851817</v>
       </c>
       <c r="D7" t="n">
-        <v>18.39687801105209</v>
+        <v>795.9429111851817</v>
       </c>
       <c r="E7" t="n">
-        <v>18.39687801105209</v>
+        <v>662.9281132739598</v>
       </c>
       <c r="F7" t="n">
-        <v>18.39687801105209</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="G7" t="n">
-        <v>18.39687801105209</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H7" t="n">
-        <v>18.39687801105209</v>
+        <v>181.8695735478723</v>
       </c>
       <c r="I7" t="n">
-        <v>18.39687801105209</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J7" t="n">
         <v>18.39687801105209</v>
@@ -4732,7 +4734,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M7" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N7" t="n">
         <v>633.8407713642671</v>
@@ -4741,34 +4743,34 @@
         <v>796.5455384059751</v>
       </c>
       <c r="P7" t="n">
-        <v>916.4217041825536</v>
+        <v>916.4217041825538</v>
       </c>
       <c r="Q7" t="n">
-        <v>919.8439005526046</v>
+        <v>919.8439005526047</v>
       </c>
       <c r="R7" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851817</v>
       </c>
       <c r="S7" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851817</v>
       </c>
       <c r="T7" t="n">
-        <v>715.2483178236314</v>
+        <v>795.9429111851817</v>
       </c>
       <c r="U7" t="n">
-        <v>482.9645045527716</v>
+        <v>795.9429111851817</v>
       </c>
       <c r="V7" t="n">
-        <v>250.6806912819119</v>
+        <v>795.9429111851817</v>
       </c>
       <c r="W7" t="n">
-        <v>18.39687801105209</v>
+        <v>795.9429111851817</v>
       </c>
       <c r="X7" t="n">
-        <v>18.39687801105209</v>
+        <v>795.9429111851817</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.39687801105209</v>
+        <v>795.9429111851817</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="C8" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="D8" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="E8" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="F8" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="G8" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="H8" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="I8" t="n">
         <v>18.39687801105209</v>
@@ -4805,19 +4807,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K8" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="L8" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="M8" t="n">
         <v>246.0582433978217</v>
       </c>
-      <c r="L8" t="n">
-        <v>473.7196087845913</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
+        <v>279.6756096381168</v>
+      </c>
+      <c r="O8" t="n">
         <v>507.3369750248864</v>
-      </c>
-      <c r="N8" t="n">
-        <v>507.3369750248864</v>
-      </c>
-      <c r="O8" t="n">
-        <v>734.998340411656</v>
       </c>
       <c r="P8" t="n">
         <v>734.998340411656</v>
@@ -4826,28 +4828,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R8" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S8" t="n">
-        <v>715.3374317791771</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T8" t="n">
-        <v>491.8368293385938</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U8" t="n">
-        <v>259.553016067734</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V8" t="n">
-        <v>27.26920279687423</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="W8" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="X8" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>718.9430456495777</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="C9" t="n">
-        <v>667.1086307111752</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="D9" t="n">
-        <v>537.0196633326556</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="E9" t="n">
-        <v>400.5731724435433</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="F9" t="n">
-        <v>276.1413663266751</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="G9" t="n">
-        <v>156.0815483985396</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="H9" t="n">
         <v>67.7841319991405</v>
@@ -4881,16 +4883,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J9" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K9" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L9" t="n">
-        <v>246.0582433978217</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M9" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N9" t="n">
         <v>692.182535165835</v>
@@ -4908,25 +4910,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S9" t="n">
-        <v>895.9268574506692</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T9" t="n">
-        <v>718.9430456495777</v>
+        <v>584.0123685494465</v>
       </c>
       <c r="U9" t="n">
-        <v>718.9430456495777</v>
+        <v>373.9492252280883</v>
       </c>
       <c r="V9" t="n">
-        <v>718.9430456495777</v>
+        <v>247.0983489236333</v>
       </c>
       <c r="W9" t="n">
-        <v>718.9430456495777</v>
+        <v>247.0983489236333</v>
       </c>
       <c r="X9" t="n">
-        <v>718.9430456495777</v>
+        <v>247.0983489236333</v>
       </c>
       <c r="Y9" t="n">
-        <v>718.9430456495777</v>
+        <v>67.7841319991405</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="C10" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="D10" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="E10" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="F10" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="G10" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="H10" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="I10" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="J10" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K10" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L10" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M10" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N10" t="n">
-        <v>633.8407713642671</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O10" t="n">
         <v>796.5455384059751</v>
@@ -4984,28 +4986,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R10" t="n">
-        <v>918.064401641082</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S10" t="n">
-        <v>715.2483178236314</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T10" t="n">
-        <v>482.9645045527716</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U10" t="n">
-        <v>250.6806912819119</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="V10" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="W10" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="X10" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>288.7627189519355</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C11" t="n">
-        <v>288.7627189519355</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="D11" t="n">
-        <v>288.7627189519355</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="E11" t="n">
-        <v>288.7627189519355</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="F11" t="n">
-        <v>288.7627189519355</v>
+        <v>455.276274010885</v>
       </c>
       <c r="G11" t="n">
-        <v>288.7627189519355</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="H11" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I11" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J11" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K11" t="n">
-        <v>18.39687801105209</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="L11" t="n">
-        <v>246.0582433978217</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="M11" t="n">
-        <v>473.7196087845913</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="N11" t="n">
         <v>507.3369750248864</v>
       </c>
       <c r="O11" t="n">
-        <v>734.998340411656</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P11" t="n">
         <v>734.998340411656</v>
@@ -5066,25 +5068,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S11" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T11" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U11" t="n">
-        <v>521.0465322227953</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V11" t="n">
-        <v>288.7627189519355</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W11" t="n">
-        <v>288.7627189519355</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X11" t="n">
-        <v>288.7627189519355</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y11" t="n">
-        <v>288.7627189519355</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>67.7841319991405</v>
+        <v>305.4975993400722</v>
       </c>
       <c r="C12" t="n">
-        <v>67.7841319991405</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="D12" t="n">
-        <v>67.7841319991405</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="E12" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F12" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G12" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H12" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I12" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J12" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K12" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L12" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="M12" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O12" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="P12" t="n">
         <v>692.182535165835</v>
@@ -5142,28 +5144,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R12" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S12" t="n">
-        <v>760.996180350538</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T12" t="n">
-        <v>584.0123685494465</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U12" t="n">
-        <v>373.9492252280883</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V12" t="n">
-        <v>151.4092235991553</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W12" t="n">
-        <v>67.7841319991405</v>
+        <v>825.9152283555145</v>
       </c>
       <c r="X12" t="n">
-        <v>67.7841319991405</v>
+        <v>636.6081507055262</v>
       </c>
       <c r="Y12" t="n">
-        <v>67.7841319991405</v>
+        <v>457.2939337810335</v>
       </c>
     </row>
     <row r="13">
@@ -5221,16 +5223,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R13" t="n">
-        <v>918.064401641082</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S13" t="n">
-        <v>715.2483178236314</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T13" t="n">
-        <v>482.9645045527716</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U13" t="n">
-        <v>250.6806912819119</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="V13" t="n">
         <v>18.39687801105209</v>
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="C14" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="D14" t="n">
+        <v>715.2483178236314</v>
+      </c>
+      <c r="E14" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="F14" t="n">
         <v>250.6806912819119</v>
-      </c>
-      <c r="C14" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="D14" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="E14" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="F14" t="n">
-        <v>18.39687801105209</v>
       </c>
       <c r="G14" t="n">
         <v>18.39687801105209</v>
@@ -5276,25 +5278,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J14" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K14" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L14" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M14" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N14" t="n">
-        <v>473.7196087845913</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="O14" t="n">
-        <v>701.380974171361</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="P14" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q14" t="n">
         <v>919.8439005526046</v>
@@ -5315,13 +5317,13 @@
         <v>919.8439005526046</v>
       </c>
       <c r="W14" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X14" t="n">
-        <v>482.9645045527716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y14" t="n">
-        <v>250.6806912819119</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J15" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K15" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L15" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M15" t="n">
-        <v>246.0582433978217</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N15" t="n">
-        <v>246.0582433978217</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O15" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P15" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q15" t="n">
         <v>919.8439005526046</v>
@@ -5388,19 +5390,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U15" t="n">
-        <v>919.8439005526046</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V15" t="n">
-        <v>697.3038989236717</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W15" t="n">
-        <v>467.1866530569586</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X15" t="n">
-        <v>277.8795754069702</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y15" t="n">
-        <v>98.56535848247745</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="C16" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="D16" t="n">
+        <v>818.4869254147573</v>
+      </c>
+      <c r="E16" t="n">
+        <v>662.9281132739598</v>
+      </c>
+      <c r="F16" t="n">
+        <v>505.6021784869328</v>
+      </c>
+      <c r="G16" t="n">
+        <v>337.3481245863783</v>
+      </c>
+      <c r="H16" t="n">
+        <v>181.8695735478723</v>
+      </c>
+      <c r="I16" t="n">
+        <v>48.77514818495014</v>
+      </c>
+      <c r="J16" t="n">
         <v>18.39687801105209</v>
-      </c>
-      <c r="C16" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="D16" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="E16" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="F16" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="G16" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="H16" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="I16" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="J16" t="n">
-        <v>18.39687801105217</v>
       </c>
       <c r="K16" t="n">
         <v>100.231919120994</v>
@@ -5443,7 +5445,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M16" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N16" t="n">
         <v>633.8407713642671</v>
@@ -5458,28 +5460,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R16" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S16" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T16" t="n">
-        <v>360.8430140968712</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U16" t="n">
-        <v>128.5592008260114</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V16" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W16" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X16" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y16" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18.39687801105209</v>
+        <v>1965.153759365782</v>
       </c>
       <c r="C17" t="n">
-        <v>18.39687801105209</v>
+        <v>1571.978257868713</v>
       </c>
       <c r="D17" t="n">
-        <v>18.39687801105209</v>
+        <v>1186.537129085381</v>
       </c>
       <c r="E17" t="n">
-        <v>18.39687801105209</v>
+        <v>783.9536042019251</v>
       </c>
       <c r="F17" t="n">
-        <v>18.39687801105209</v>
+        <v>367.0591657319029</v>
       </c>
       <c r="G17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>163.0466509198802</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
-        <v>279.6756096381168</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L17" t="n">
-        <v>279.6756096381168</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M17" t="n">
-        <v>507.3369750248864</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N17" t="n">
-        <v>507.3369750248864</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O17" t="n">
-        <v>734.998340411656</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>734.998340411656</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V17" t="n">
-        <v>715.2483178236314</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W17" t="n">
-        <v>482.9645045527716</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X17" t="n">
-        <v>250.6806912819119</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.39687801105209</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.39687801105209</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C18" t="n">
-        <v>18.39687801105209</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D18" t="n">
-        <v>18.39687801105209</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E18" t="n">
-        <v>18.39687801105209</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F18" t="n">
-        <v>18.39687801105209</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G18" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H18" t="n">
-        <v>18.39687801105209</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I18" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K18" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L18" t="n">
-        <v>246.0582433978217</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M18" t="n">
-        <v>246.0582433978217</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5211697790654</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O18" t="n">
-        <v>692.182535165835</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P18" t="n">
-        <v>692.182535165835</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q18" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>919.8439005526046</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>919.8439005526046</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>919.8439005526046</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>709.7807572312464</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>487.2407556023135</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
-        <v>257.1235097356004</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X18" t="n">
-        <v>67.81643208561201</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.39687801105209</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.39687801105209</v>
+        <v>405.5706623673549</v>
       </c>
       <c r="C19" t="n">
-        <v>18.39687801105209</v>
+        <v>405.5706623673549</v>
       </c>
       <c r="D19" t="n">
-        <v>18.39687801105209</v>
+        <v>405.5706623673549</v>
       </c>
       <c r="E19" t="n">
-        <v>18.39687801105209</v>
+        <v>250.0118502265574</v>
       </c>
       <c r="F19" t="n">
-        <v>18.39687801105209</v>
+        <v>250.0118502265574</v>
       </c>
       <c r="G19" t="n">
-        <v>18.39687801105209</v>
+        <v>81.75779632600293</v>
       </c>
       <c r="H19" t="n">
-        <v>18.39687801105209</v>
+        <v>81.75779632600293</v>
       </c>
       <c r="I19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
-        <v>450.6511373330578</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N19" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O19" t="n">
-        <v>796.5455384059751</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P19" t="n">
-        <v>916.4217041825536</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q19" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>795.9429111851816</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S19" t="n">
-        <v>795.9429111851816</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T19" t="n">
-        <v>563.6590979143218</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U19" t="n">
-        <v>563.6590979143218</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V19" t="n">
-        <v>331.375284643462</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W19" t="n">
-        <v>99.09147137260223</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X19" t="n">
-        <v>18.39687801105209</v>
+        <v>590.7786810586562</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.39687801105209</v>
+        <v>590.7786810586562</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1279.953688967018</v>
+        <v>1190.873983888531</v>
       </c>
       <c r="C20" t="n">
-        <v>1279.953688967018</v>
+        <v>1190.873983888531</v>
       </c>
       <c r="D20" t="n">
-        <v>1279.953688967018</v>
+        <v>1190.873983888531</v>
       </c>
       <c r="E20" t="n">
-        <v>877.3701640835627</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F20" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L20" t="n">
-        <v>1044.265390756362</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="M20" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N20" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T20" t="n">
-        <v>2248.812262860614</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.059533295213</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="V20" t="n">
-        <v>1650.952723998731</v>
+        <v>1951.325623987187</v>
       </c>
       <c r="W20" t="n">
-        <v>1279.953688967018</v>
+        <v>1580.326588955474</v>
       </c>
       <c r="X20" t="n">
-        <v>1279.953688967018</v>
+        <v>1190.873983888531</v>
       </c>
       <c r="Y20" t="n">
-        <v>1279.953688967018</v>
+        <v>1190.873983888531</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F21" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J21" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L21" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M21" t="n">
-        <v>745.9259573278732</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N21" t="n">
-        <v>1331.423962334475</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.31297010154361</v>
+        <v>528.7100132738371</v>
       </c>
       <c r="C22" t="n">
-        <v>47.31297010154361</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D22" t="n">
-        <v>47.31297010154361</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5932,28 +5934,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V22" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W22" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X22" t="n">
-        <v>152.2435454094397</v>
+        <v>937.0300931484951</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.31297010154361</v>
+        <v>713.9180319651384</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>784.5587760470498</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C23" t="n">
-        <v>784.5587760470498</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D23" t="n">
-        <v>784.5587760470498</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E23" t="n">
-        <v>784.5587760470498</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F23" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G23" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K23" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L23" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M23" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N23" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O23" t="n">
         <v>2017.461012945658</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V23" t="n">
-        <v>2341.995870936501</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W23" t="n">
-        <v>1970.996835904789</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X23" t="n">
-        <v>1581.544230837846</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="Y23" t="n">
-        <v>1185.053521758447</v>
+        <v>2058.57031924742</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6062,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L24" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N24" t="n">
-        <v>1443.506853769801</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O24" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P24" t="n">
         <v>2365.648505077179</v>
@@ -6121,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C25" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D25" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E25" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F25" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G25" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H25" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I25" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J25" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K25" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M25" t="n">
         <v>479.5672294235493</v>
@@ -6175,22 +6177,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U25" t="n">
-        <v>596.6227173495417</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V25" t="n">
-        <v>330.643372170366</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W25" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X25" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>606.8425804052449</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C26" t="n">
-        <v>213.6670789081755</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D26" t="n">
-        <v>47.31297010154361</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E26" t="n">
-        <v>47.31297010154361</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
-        <v>265.4829774041385</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L26" t="n">
-        <v>758.8032691226673</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M26" t="n">
-        <v>1304.804169167248</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N26" t="n">
-        <v>1832.61545280471</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O26" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P26" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U26" t="n">
-        <v>2109.895775511779</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V26" t="n">
-        <v>1767.788966215297</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="W26" t="n">
-        <v>1396.789931183585</v>
+        <v>1738.896740480066</v>
       </c>
       <c r="X26" t="n">
-        <v>1007.337326116642</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="Y26" t="n">
-        <v>1007.337326116642</v>
+        <v>1604.036739400527</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F27" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K27" t="n">
         <v>367.0521161637701</v>
@@ -6312,34 +6314,34 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M27" t="n">
-        <v>1436.116207068686</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.506853769802</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.027136360783</v>
+        <v>1952.636489659666</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.64850507718</v>
+        <v>2358.257858376064</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.31297010154361</v>
+        <v>1943.647461674464</v>
       </c>
       <c r="C28" t="n">
-        <v>47.31297010154361</v>
+        <v>1943.647461674464</v>
       </c>
       <c r="D28" t="n">
-        <v>47.31297010154361</v>
+        <v>1788.014348576979</v>
       </c>
       <c r="E28" t="n">
-        <v>47.31297010154361</v>
+        <v>1632.455536436181</v>
       </c>
       <c r="F28" t="n">
-        <v>47.31297010154361</v>
+        <v>1632.455536436181</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K28" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M28" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N28" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O28" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P28" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q28" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R28" t="n">
-        <v>948.7599926430961</v>
+        <v>2241.747515709756</v>
       </c>
       <c r="S28" t="n">
-        <v>948.7599926430961</v>
+        <v>2038.931431892306</v>
       </c>
       <c r="T28" t="n">
-        <v>713.0409408113302</v>
+        <v>1943.647461674464</v>
       </c>
       <c r="U28" t="n">
-        <v>427.6021490532311</v>
+        <v>1943.647461674464</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6228038740554</v>
+        <v>1943.647461674464</v>
       </c>
       <c r="W28" t="n">
-        <v>47.31297010154361</v>
+        <v>1943.647461674464</v>
       </c>
       <c r="X28" t="n">
-        <v>47.31297010154361</v>
+        <v>1943.647461674464</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.31297010154361</v>
+        <v>1943.647461674464</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>347.9522118488999</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="C29" t="n">
-        <v>347.9522118488999</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D29" t="n">
-        <v>347.9522118488999</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E29" t="n">
-        <v>347.9522118488999</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F29" t="n">
-        <v>347.9522118488999</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G29" t="n">
-        <v>347.9522118488999</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
         <v>191.9627430103717</v>
@@ -6476,37 +6478,37 @@
         <v>2118.077574438405</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T29" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U29" t="n">
-        <v>1905.389306738351</v>
+        <v>2109.895775511778</v>
       </c>
       <c r="V29" t="n">
-        <v>1905.389306738351</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="W29" t="n">
-        <v>1534.390271706639</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="X29" t="n">
-        <v>1144.937666639696</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="Y29" t="n">
-        <v>748.4469575602968</v>
+        <v>1989.47786818386</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F30" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0521161637701</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L30" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M30" t="n">
-        <v>858.0088487631995</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O30" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6585,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>405.5706623673549</v>
+        <v>371.045575040604</v>
       </c>
       <c r="C31" t="n">
-        <v>405.5706623673549</v>
+        <v>371.045575040604</v>
       </c>
       <c r="D31" t="n">
-        <v>405.5706623673549</v>
+        <v>371.045575040604</v>
       </c>
       <c r="E31" t="n">
-        <v>405.5706623673549</v>
+        <v>371.045575040604</v>
       </c>
       <c r="F31" t="n">
-        <v>405.5706623673549</v>
+        <v>371.045575040604</v>
       </c>
       <c r="G31" t="n">
-        <v>237.3166084668004</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H31" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6643,28 +6645,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V31" t="n">
-        <v>824.8590032756731</v>
+        <v>779.365654915262</v>
       </c>
       <c r="W31" t="n">
-        <v>824.8590032756731</v>
+        <v>779.365654915262</v>
       </c>
       <c r="X31" t="n">
-        <v>590.7786810586562</v>
+        <v>779.365654915262</v>
       </c>
       <c r="Y31" t="n">
-        <v>590.7786810586562</v>
+        <v>556.2535937319053</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2327.655591362702</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="C32" t="n">
-        <v>2127.814985091395</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D32" t="n">
-        <v>1742.373856308063</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E32" t="n">
-        <v>1339.790331424607</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F32" t="n">
-        <v>922.895892954585</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G32" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H32" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K32" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L32" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M32" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N32" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S32" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T32" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U32" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V32" t="n">
-        <v>2327.655591362702</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="W32" t="n">
-        <v>2327.655591362702</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="X32" t="n">
-        <v>2327.655591362702</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="Y32" t="n">
-        <v>2327.655591362702</v>
+        <v>1665.394817750351</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F33" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J33" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K33" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L33" t="n">
-        <v>160.4279523212711</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M33" t="n">
-        <v>745.9259573278732</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N33" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O33" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P33" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6822,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1957.328425202522</v>
+        <v>2082.318103008357</v>
       </c>
       <c r="C34" t="n">
-        <v>1957.328425202522</v>
+        <v>2082.318103008357</v>
       </c>
       <c r="D34" t="n">
-        <v>1801.695312105037</v>
+        <v>2082.318103008357</v>
       </c>
       <c r="E34" t="n">
-        <v>1801.695312105037</v>
+        <v>2082.318103008357</v>
       </c>
       <c r="F34" t="n">
-        <v>1801.695312105037</v>
+        <v>1951.406783011507</v>
       </c>
       <c r="G34" t="n">
-        <v>1783.152729110954</v>
+        <v>1783.152729110953</v>
       </c>
       <c r="H34" t="n">
-        <v>1627.674178072448</v>
+        <v>1627.674178072447</v>
       </c>
       <c r="I34" t="n">
-        <v>1494.579752709526</v>
+        <v>1494.579752709525</v>
       </c>
       <c r="J34" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K34" t="n">
-        <v>1546.036523645569</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L34" t="n">
-        <v>1710.164163519369</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M34" t="n">
-        <v>1896.455741857633</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N34" t="n">
-        <v>2079.645375888842</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O34" t="n">
-        <v>2242.350142930551</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P34" t="n">
-        <v>2362.226308707129</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V34" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W34" t="n">
-        <v>2365.64850507718</v>
+        <v>2082.318103008357</v>
       </c>
       <c r="X34" t="n">
-        <v>2365.64850507718</v>
+        <v>2082.318103008357</v>
       </c>
       <c r="Y34" t="n">
-        <v>2142.536443893824</v>
+        <v>2082.318103008357</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>825.9296003819453</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C35" t="n">
-        <v>432.7540988848759</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D35" t="n">
-        <v>47.31297010154361</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E35" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F35" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
         <v>191.9627430103717</v>
@@ -6941,46 +6943,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L35" t="n">
-        <v>550.9450990378335</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>1096.945999082414</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N35" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O35" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P35" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W35" t="n">
-        <v>2012.367660239684</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X35" t="n">
-        <v>1622.915055172741</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y35" t="n">
-        <v>1226.424346093342</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J36" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="K36" t="n">
-        <v>443.7671209181044</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L36" t="n">
-        <v>443.7671209181044</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M36" t="n">
-        <v>1029.265125924707</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N36" t="n">
-        <v>1614.763130931309</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O36" t="n">
-        <v>2131.28341352229</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P36" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W36" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X36" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>539.420211517574</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C37" t="n">
-        <v>539.420211517574</v>
+        <v>654.6538853416623</v>
       </c>
       <c r="D37" t="n">
-        <v>528.4517709299226</v>
+        <v>654.6538853416623</v>
       </c>
       <c r="E37" t="n">
-        <v>372.8929587891251</v>
+        <v>499.0950732008648</v>
       </c>
       <c r="F37" t="n">
-        <v>215.5670240020981</v>
+        <v>371.045575040604</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7126,19 +7128,19 @@
         <v>824.8590032756731</v>
       </c>
       <c r="U37" t="n">
-        <v>539.420211517574</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V37" t="n">
-        <v>539.420211517574</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W37" t="n">
-        <v>539.420211517574</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X37" t="n">
-        <v>539.420211517574</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y37" t="n">
-        <v>539.420211517574</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2365.64850507718</v>
+        <v>969.3444124021627</v>
       </c>
       <c r="C38" t="n">
-        <v>2127.814985091395</v>
+        <v>969.3444124021627</v>
       </c>
       <c r="D38" t="n">
-        <v>1742.373856308063</v>
+        <v>969.3444124021627</v>
       </c>
       <c r="E38" t="n">
-        <v>1339.790331424607</v>
+        <v>969.3444124021627</v>
       </c>
       <c r="F38" t="n">
         <v>922.895892954585</v>
@@ -7169,55 +7171,55 @@
         <v>185.6500870090788</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K38" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L38" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M38" t="n">
-        <v>1392.575851912381</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N38" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.64850507718</v>
+        <v>2071.9028617973</v>
       </c>
       <c r="V38" t="n">
-        <v>2365.64850507718</v>
+        <v>1729.796052500818</v>
       </c>
       <c r="W38" t="n">
-        <v>2365.64850507718</v>
+        <v>1358.797017469106</v>
       </c>
       <c r="X38" t="n">
-        <v>2365.64850507718</v>
+        <v>969.3444124021627</v>
       </c>
       <c r="Y38" t="n">
-        <v>2365.64850507718</v>
+        <v>969.3444124021627</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F39" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J39" t="n">
-        <v>160.4279523212711</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K39" t="n">
-        <v>160.4279523212711</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L39" t="n">
-        <v>643.9940382195844</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.16403979929</v>
+        <v>632.8109751081455</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.662044805892</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O39" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P39" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7296,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1951.406783011508</v>
+        <v>763.5519739517948</v>
       </c>
       <c r="C40" t="n">
-        <v>1951.406783011508</v>
+        <v>763.5519739517948</v>
       </c>
       <c r="D40" t="n">
-        <v>1951.406783011508</v>
+        <v>763.5519739517948</v>
       </c>
       <c r="E40" t="n">
-        <v>1951.406783011508</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F40" t="n">
-        <v>1951.406783011508</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.152729110954</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H40" t="n">
-        <v>1627.674178072448</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I40" t="n">
-        <v>1494.579752709526</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J40" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N40" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O40" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P40" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q40" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>2038.931431892307</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2058.57031924742</v>
+        <v>1969.157795997781</v>
       </c>
       <c r="C41" t="n">
-        <v>1665.394817750351</v>
+        <v>1575.982294500711</v>
       </c>
       <c r="D41" t="n">
-        <v>1279.953688967018</v>
+        <v>1190.541165717379</v>
       </c>
       <c r="E41" t="n">
         <v>877.3701640835627</v>
@@ -7400,61 +7402,61 @@
         <v>460.4757256135405</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K41" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L41" t="n">
-        <v>318.7636682303387</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M41" t="n">
-        <v>864.7645682749193</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y41" t="n">
-        <v>2365.64850507718</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J42" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>643.9940382195842</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>1229.492043226187</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
         <v>2341.731461975244</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>366.0278902605505</v>
+        <v>1582.258435612164</v>
       </c>
       <c r="C43" t="n">
-        <v>366.0278902605505</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="D43" t="n">
-        <v>366.0278902605505</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="E43" t="n">
-        <v>366.0278902605505</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="F43" t="n">
-        <v>366.0278902605505</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G43" t="n">
-        <v>197.7738363599961</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K43" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M43" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N43" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O43" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P43" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q43" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R43" t="n">
-        <v>824.8590032756731</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S43" t="n">
-        <v>824.8590032756731</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T43" t="n">
-        <v>589.1399514439072</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U43" t="n">
-        <v>589.1399514439072</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V43" t="n">
-        <v>589.1399514439072</v>
+        <v>2099.669159898004</v>
       </c>
       <c r="W43" t="n">
-        <v>589.1399514439072</v>
+        <v>1816.338757829181</v>
       </c>
       <c r="X43" t="n">
-        <v>589.1399514439072</v>
+        <v>1582.258435612164</v>
       </c>
       <c r="Y43" t="n">
-        <v>366.0278902605505</v>
+        <v>1582.258435612164</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>482.9645045527717</v>
+        <v>1228.513125265401</v>
       </c>
       <c r="C44" t="n">
-        <v>482.9645045527717</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D44" t="n">
-        <v>482.9645045527717</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E44" t="n">
-        <v>250.6806912819119</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F44" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G44" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H44" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I44" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>163.0466509198802</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>390.7080163066499</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>618.3693816934195</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M44" t="n">
-        <v>734.9983404116562</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N44" t="n">
-        <v>734.9983404116562</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O44" t="n">
-        <v>734.9983404116562</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P44" t="n">
-        <v>734.9983404116562</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q44" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>919.8439005526047</v>
+        <v>2356.563248708224</v>
       </c>
       <c r="S44" t="n">
-        <v>919.8439005526047</v>
+        <v>2356.563248708224</v>
       </c>
       <c r="T44" t="n">
-        <v>715.2483178236315</v>
+        <v>2356.563248708224</v>
       </c>
       <c r="U44" t="n">
-        <v>715.2483178236315</v>
+        <v>2356.563248708224</v>
       </c>
       <c r="V44" t="n">
-        <v>482.9645045527717</v>
+        <v>2014.456439411743</v>
       </c>
       <c r="W44" t="n">
-        <v>482.9645045527717</v>
+        <v>2014.456439411743</v>
       </c>
       <c r="X44" t="n">
-        <v>482.9645045527717</v>
+        <v>1625.0038343448</v>
       </c>
       <c r="Y44" t="n">
-        <v>482.9645045527717</v>
+        <v>1228.513125265401</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>18.3968780110521</v>
+        <v>846.6789532415745</v>
       </c>
       <c r="C45" t="n">
-        <v>18.3968780110521</v>
+        <v>696.0247228016667</v>
       </c>
       <c r="D45" t="n">
-        <v>18.3968780110521</v>
+        <v>565.935755423147</v>
       </c>
       <c r="E45" t="n">
-        <v>18.3968780110521</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>18.3968780110521</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>18.3968780110521</v>
+        <v>184.997640489031</v>
       </c>
       <c r="H45" t="n">
-        <v>18.3968780110521</v>
+        <v>96.70022408963194</v>
       </c>
       <c r="I45" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154356</v>
       </c>
       <c r="J45" t="n">
-        <v>131.5118602307795</v>
+        <v>47.31297010154356</v>
       </c>
       <c r="K45" t="n">
-        <v>131.5118602307795</v>
+        <v>367.05211616377</v>
       </c>
       <c r="L45" t="n">
-        <v>131.5118602307795</v>
+        <v>850.6182020620832</v>
       </c>
       <c r="M45" t="n">
-        <v>359.1732256175491</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5211697790655</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O45" t="n">
-        <v>692.1825351658351</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P45" t="n">
-        <v>919.8439005526047</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q45" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>919.8439005526047</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>919.8439005526047</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>919.8439005526047</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>709.7807572312465</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>487.2407556023136</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>257.1235097356005</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>67.81643208561212</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>67.81643208561212</v>
+        <v>998.4752876825358</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>374.6133792164462</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C46" t="n">
-        <v>204.4082612824354</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I46" t="n">
-        <v>48.77514818495015</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K46" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M46" t="n">
-        <v>450.6511373330579</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>796.5455384059752</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>916.4217041825538</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>919.8439005526047</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>830.0092536706627</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>830.0092536706627</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>830.0092536706627</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U46" t="n">
-        <v>597.7254403998029</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V46" t="n">
-        <v>597.7254403998029</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W46" t="n">
-        <v>597.7254403998029</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X46" t="n">
-        <v>597.7254403998029</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y46" t="n">
-        <v>374.6133792164462</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
@@ -7985,10 +7987,10 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>379.6860267358784</v>
+        <v>267.5320806060471</v>
       </c>
       <c r="N2" t="n">
-        <v>369.788113945101</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>379.5248125622476</v>
@@ -7997,7 +7999,7 @@
         <v>380.2624223790764</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,19 +8060,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
         <v>313.0567446566288</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>373.0193783173885</v>
@@ -8222,19 +8224,19 @@
         <v>383.2091448686429</v>
       </c>
       <c r="M5" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>223.677232219012</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>183.5207730203541</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,19 +8300,19 @@
         <v>319.5579104714845</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4724116665307</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O6" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8453,22 +8455,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>183.6819871939849</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>183.0754269340418</v>
       </c>
       <c r="O8" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L9" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
-        <v>313.0567446566288</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N9" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>92.68755888888889</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>260.8654321875572</v>
       </c>
       <c r="L11" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M11" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N11" t="n">
-        <v>183.0754269340418</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O11" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8766,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
@@ -8775,7 +8777,7 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>313.0567446566288</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N12" t="n">
         <v>315.3330879923178</v>
@@ -8784,7 +8786,7 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>317.0443399574658</v>
+        <v>193.4954296289271</v>
       </c>
       <c r="Q12" t="n">
         <v>320.9491282940651</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M14" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N14" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O14" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P14" t="n">
-        <v>370.971069848242</v>
+        <v>268.108476249245</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
@@ -9012,19 +9014,19 @@
         <v>320.0213219950694</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>313.3571814962058</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P15" t="n">
         <v>317.0443399574658</v>
       </c>
       <c r="Q15" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>260.8654321875572</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>379.6860267358784</v>
+        <v>652.9391957389944</v>
       </c>
       <c r="N17" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>379.5248125622476</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9246,22 +9248,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>320.0213219950694</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N18" t="n">
-        <v>306.0417354614835</v>
+        <v>179.0738312465417</v>
       </c>
       <c r="O18" t="n">
-        <v>322.6485340270401</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>320.9491282940651</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>616.3484143223229</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
-        <v>487.848403846783</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,19 +9482,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186069</v>
+        <v>237.3130400541713</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O21" t="n">
-        <v>490.9078442135524</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9641,7 +9643,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
-        <v>251.5450406822918</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
@@ -9650,7 +9652,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>194.041828753471</v>
       </c>
       <c r="P23" t="n">
         <v>502.0059847475129</v>
@@ -9714,25 +9716,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N24" t="n">
-        <v>415.8062469585524</v>
+        <v>388.2984090135462</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>217.3212662032442</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
@@ -9887,13 +9889,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>149.5638374240964</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P26" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9960,10 +9962,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>92.83741255226374</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>98.45345285401062</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10124,7 +10126,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>399.6354845339704</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10191,16 +10193,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>99.852421747409</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10349,7 +10351,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
         <v>651.5514946987026</v>
@@ -10361,7 +10363,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P32" t="n">
         <v>150.3014472409252</v>
@@ -10431,13 +10433,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186069</v>
+        <v>663.2434089132774</v>
       </c>
       <c r="N33" t="n">
-        <v>553.266865265316</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10589,22 +10591,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
-        <v>447.7345042973469</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10662,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>375.7981157341752</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>99.8524217474083</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10829,10 +10831,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>501.5538002401705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>149.1184913377841</v>
+        <v>282.2547480662832</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10841,7 +10843,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10899,22 +10901,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>593.5689418267924</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>667.5244230630199</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>281.3299123769229</v>
+        <v>251.5450406822908</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11078,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11139,16 +11141,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>301.5486891608486</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11297,25 +11299,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>373.0193783173885</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>383.2091448686429</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>267.5320806060471</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>487.848403846782</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>322.3480971874631</v>
+        <v>454.5321323046927</v>
       </c>
       <c r="N45" t="n">
-        <v>191.7841776637791</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>322.6485340270401</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>317.0443399574658</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358.7885908609595</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -22592,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V2" t="n">
         <v>108.7247660653656</v>
       </c>
       <c r="W2" t="n">
-        <v>137.3280695432443</v>
+        <v>358.5054431434315</v>
       </c>
       <c r="X2" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -22626,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -22683,7 +22685,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.0592635653493</v>
+        <v>70.91157542984064</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22705,28 +22707,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>38.23819033443223</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>184.3333396127333</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -22841,16 +22843,16 @@
         <v>88.25855994539717</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="6">
@@ -22863,25 +22865,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>77.59152870878452</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22920,13 +22922,13 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>220.0592635653493</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22948,22 +22950,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>22.31857408727976</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>30.81223441176471</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23036,10 +23038,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>181.4384044141857</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23078,10 +23080,10 @@
         <v>23.23422713159621</v>
       </c>
       <c r="V8" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>358.5054431434315</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -23100,22 +23102,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>97.83161734649028</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23148,16 +23150,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>220.3146016126436</v>
+        <v>94.73223407123319</v>
       </c>
       <c r="W9" t="n">
         <v>227.816073408046</v>
@@ -23166,7 +23168,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>120.9002755513414</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23236,7 +23238,7 @@
         <v>52.62342870236691</v>
       </c>
       <c r="V10" t="n">
-        <v>33.35857658923285</v>
+        <v>154.2588521405742</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23267,16 +23269,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H11" t="n">
-        <v>90.88124479102308</v>
+        <v>118.2925930274908</v>
       </c>
       <c r="I11" t="n">
-        <v>99.2525383451364</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23324,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="12">
@@ -23334,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
@@ -23355,7 +23357,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>145.0272327240314</v>
+        <v>134.8266879329268</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>120.9002755513414</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>52.62342870236691</v>
       </c>
       <c r="V13" t="n">
-        <v>33.35857658923285</v>
+        <v>154.2588521405743</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23495,19 +23497,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>179.0370905938154</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23555,13 +23557,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>164.7394177797119</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.91157542984062</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
         <v>149.1476881355087</v>
@@ -23628,7 +23630,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23640,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="16">
@@ -23656,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>154.2588521405743</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>92.48239428282119</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23789,16 +23791,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>136.1361143018333</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23877,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>128.5957162214335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23896,19 +23898,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I19" t="n">
-        <v>131.7634811092929</v>
+        <v>97.66310314707815</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -23941,19 +23943,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8518715669121</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24020,19 +24022,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>105.5977166217767</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>149.7716853406016</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
@@ -24190,10 +24192,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>220.1269184951917</v>
       </c>
       <c r="Y22" t="n">
-        <v>116.999671016706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24263,16 +24265,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>315.2696334042447</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>81.55067504481173</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24367,25 +24369,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>216.8961497769334</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24500,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>252.0466779475311</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24604,16 +24606,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.0307307977845</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>23.2093705992915</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24725,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
@@ -24737,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>219.4720129488776</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>97.58364465580961</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
@@ -24895,16 +24897,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>95.61915737682824</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24919,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>191.4015462735047</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -24974,13 +24976,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>30.99266976622988</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>26.1504686422756</v>
       </c>
       <c r="G34" t="n">
-        <v>148.2143561974063</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>92.48239428282091</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25214,13 +25216,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>17.54100829227411</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25312,22 +25314,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>143.2180257847356</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>28.98367226049861</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>131.7634811092929</v>
@@ -25366,7 +25368,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25391,16 +25393,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>153.7885616961714</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>366.7414598322201</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -25445,16 +25447,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25555,10 +25557,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>83.01253311791935</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>146.7124589214576</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>92.48239428282</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>88.51839801714294</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>51.62668320889819</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25798,10 +25800,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>4.967507932253028</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
         <v>131.7634811092929</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25865,16 +25867,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>168.5967144964697</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>28.61858077206782</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>18.71596951449399</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>108.7247660653656</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>101.3530125627373</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,10 +26025,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26044,7 +26046,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>33.72567906062619</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.62342870236688</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>420879.701030434</v>
+        <v>420879.7010304341</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>420879.7010304341</v>
+        <v>420879.701030434</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>420879.7010304341</v>
+        <v>420879.701030434</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>420879.7010304341</v>
+        <v>677577.3928281165</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677577.3928281174</v>
+        <v>677577.3928281169</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>677577.3928281175</v>
+        <v>677577.3928281165</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677577.3928281175</v>
+        <v>677577.3928281168</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677577.392828117</v>
+        <v>677577.3928281169</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677577.3928281169</v>
+        <v>677577.392828117</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677577.392828117</v>
+        <v>677577.3928281168</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677577.392828117</v>
+        <v>677577.3928281168</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677577.3928281172</v>
+        <v>677577.3928281169</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>420879.7010304342</v>
+        <v>677577.3928281174</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>70146.61683840569</v>
+      </c>
+      <c r="C2" t="n">
         <v>70146.61683840568</v>
       </c>
-      <c r="C2" t="n">
-        <v>70146.61683840565</v>
-      </c>
       <c r="D2" t="n">
-        <v>70146.61683840569</v>
+        <v>70146.61683840568</v>
       </c>
       <c r="E2" t="n">
-        <v>70146.61683840565</v>
+        <v>70146.61683840568</v>
       </c>
       <c r="F2" t="n">
-        <v>70146.61683840567</v>
+        <v>70146.61683840568</v>
       </c>
       <c r="G2" t="n">
-        <v>70146.61683840565</v>
+        <v>112929.5654713528</v>
       </c>
       <c r="H2" t="n">
         <v>112929.5654713528</v>
       </c>
       <c r="I2" t="n">
-        <v>112929.5654713529</v>
+        <v>112929.5654713528</v>
       </c>
       <c r="J2" t="n">
-        <v>112929.5654713529</v>
+        <v>112929.5654713528</v>
       </c>
       <c r="K2" t="n">
         <v>112929.5654713528</v>
       </c>
       <c r="L2" t="n">
-        <v>112929.5654713529</v>
+        <v>112929.5654713528</v>
       </c>
       <c r="M2" t="n">
         <v>112929.5654713528</v>
       </c>
       <c r="N2" t="n">
-        <v>112929.5654713529</v>
+        <v>112929.5654713528</v>
       </c>
       <c r="O2" t="n">
         <v>112929.5654713528</v>
       </c>
       <c r="P2" t="n">
-        <v>70146.61683840568</v>
+        <v>112929.5654713528</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>99068.33875777952</v>
       </c>
       <c r="H3" t="n">
-        <v>97522.77363554281</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60167.90937904643</v>
+        <v>60167.90937904642</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>86983.58097086086</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,34 +26432,34 @@
         <v>199.4110080167677</v>
       </c>
       <c r="G4" t="n">
-        <v>199.4110080167677</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="I4" t="n">
+        <v>461.3207027394315</v>
+      </c>
+      <c r="J4" t="n">
         <v>461.3207027394316</v>
       </c>
-      <c r="J4" t="n">
-        <v>461.3207027394317</v>
-      </c>
       <c r="K4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="P4" t="n">
-        <v>199.4110080167677</v>
+        <v>461.3207027394315</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>13981.62728839959</v>
       </c>
       <c r="G5" t="n">
-        <v>13981.62728839959</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>13981.62728839959</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54727.2333292333</v>
+        <v>-54727.23332923328</v>
       </c>
       <c r="C6" t="n">
-        <v>22337.97854198929</v>
+        <v>22337.97854198932</v>
       </c>
       <c r="D6" t="n">
-        <v>22337.97854198933</v>
+        <v>22337.97854198932</v>
       </c>
       <c r="E6" t="n">
-        <v>55965.57854198929</v>
+        <v>55965.57854198932</v>
       </c>
       <c r="F6" t="n">
-        <v>55965.5785419893</v>
+        <v>55965.57854198932</v>
       </c>
       <c r="G6" t="n">
-        <v>55965.57854198929</v>
+        <v>-22557.95126633925</v>
       </c>
       <c r="H6" t="n">
-        <v>-21012.38614410253</v>
+        <v>76510.38749144028</v>
       </c>
       <c r="I6" t="n">
-        <v>76510.38749144031</v>
+        <v>76510.38749144025</v>
       </c>
       <c r="J6" t="n">
-        <v>16342.47811239386</v>
+        <v>16342.47811239384</v>
       </c>
       <c r="K6" t="n">
-        <v>76510.38749144025</v>
+        <v>76510.38749144028</v>
       </c>
       <c r="L6" t="n">
         <v>76510.38749144028</v>
       </c>
       <c r="M6" t="n">
-        <v>76510.38749144027</v>
+        <v>76510.38749144028</v>
       </c>
       <c r="N6" t="n">
-        <v>76510.3874914403</v>
+        <v>76510.38749144028</v>
       </c>
       <c r="O6" t="n">
-        <v>76510.38749144024</v>
+        <v>-10473.1934794206</v>
       </c>
       <c r="P6" t="n">
-        <v>55965.57854198931</v>
+        <v>76510.38749144025</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="H4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>361.4511511311437</v>
       </c>
       <c r="P4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,10 +34707,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>229.9609751381512</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="N2" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>229.9609751381512</v>
@@ -34717,7 +34719,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>220.6696226073169</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>229.9609751381512</v>
@@ -34942,19 +34944,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>33.95693559625767</v>
+      </c>
+      <c r="P5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N5" t="n">
-        <v>74.55874088122788</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L6" t="n">
+        <v>229.9609751381512</v>
+      </c>
+      <c r="M6" t="n">
         <v>106.4120648096125</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L8" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="M8" t="n">
-        <v>33.95693559625767</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>33.9569355962577</v>
       </c>
       <c r="O8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L9" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M9" t="n">
-        <v>220.6696226073169</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N9" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N10" t="n">
-        <v>185.0400343749589</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O10" t="n">
         <v>164.3482495370789</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="L11" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N11" t="n">
-        <v>33.95693559625767</v>
-      </c>
-      <c r="O11" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N12" t="n">
         <v>229.9609751381512</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="Q12" t="n">
         <v>229.9609751381512</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>220.6696226073168</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P15" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q15" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>117.8070290083198</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>229.9609751381512</v>
+        <v>503.2141441412671</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>229.9609751381512</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>229.9609751381512</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N18" t="n">
-        <v>220.6696226073169</v>
+        <v>93.701718392375</v>
       </c>
       <c r="O18" t="n">
-        <v>229.9609751381512</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>229.9609751381512</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>463.1002445918313</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>338.7299125089989</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692951</v>
+        <v>144.9259180048594</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O21" t="n">
-        <v>398.2202853246635</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36361,7 +36363,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>98.29687095180005</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36370,7 +36372,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>44.47799132937455</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N24" t="n">
-        <v>330.4341341043857</v>
+        <v>302.9262961593795</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>74.2628630240068</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
@@ -36607,13 +36609,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>7.465299698097082</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>7.465299698096623</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>250.071647109874</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>7.465299698097082</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37081,7 +37083,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692951</v>
+        <v>570.8562868639656</v>
       </c>
       <c r="N33" t="n">
-        <v>467.8947524111493</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37309,22 +37311,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>298.6160129595628</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>286.2011804008418</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>7.465299698096393</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37549,10 +37551,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>351.8287486424433</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>133.1362567284992</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37561,7 +37563,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1818197774805</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>582.1523102088532</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>128.0817426464313</v>
+        <v>98.29687095179912</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37798,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>216.1765763066819</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>229.9609751381512</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>229.9609751381512</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>117.8070290083198</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>338.729912508998</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>229.9609751381512</v>
+        <v>362.1450102553807</v>
       </c>
       <c r="N45" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>229.9609751381512</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>229.9609751381512</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>287602.579814244</v>
+        <v>279900.2223624023</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6037395.839817923</v>
+        <v>6037395.839817926</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12249539.32494794</v>
+        <v>12249539.32494795</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6646427.27015918</v>
+        <v>6646427.270159183</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>164.9366423243502</v>
+      </c>
+      <c r="Y2" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="V2" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="W2" t="n">
-        <v>8.783601537963911</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>79.36679566671111</v>
       </c>
       <c r="V3" t="n">
-        <v>149.403026182803</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>229.9609751381512</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U4" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V4" t="n">
-        <v>78.9862121146507</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U5" t="n">
-        <v>164.9366423243502</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V5" t="n">
         <v>229.9609751381512</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>126.2757377847978</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2553380472942808</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>131.6846499321097</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>118.9046835062788</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>139.4038155149885</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -1268,19 +1268,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>125.5823675414104</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>25.6302287212427</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>229.9609751381512</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U10" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V10" t="n">
-        <v>109.0606995868098</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,64 +1381,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>37.61298457733328</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>164.9366423243502</v>
+      </c>
+      <c r="V11" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="G11" t="n">
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="H11" t="n">
-        <v>202.5496269016834</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,13 +1451,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>81.94905681782944</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>92.98938547511922</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>229.9609751381512</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U13" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V13" t="n">
-        <v>109.0606995868097</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,70 +1609,70 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D14" t="n">
+        <v>229.9609751381512</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>202.5496269016835</v>
       </c>
-      <c r="E14" t="n">
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="F14" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="G14" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>31.21654734181276</v>
       </c>
       <c r="W15" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.92535853381431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>10.84173848903534</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -1852,19 +1852,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5487336740557</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>105.553895595544</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S18" t="n">
-        <v>133.5813703291298</v>
+        <v>133.5813703291307</v>
       </c>
       <c r="T18" t="n">
         <v>175.2139736830806</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.10037796221474</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -2095,10 +2095,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>53.94193225927677</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>188.9140558629152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I21" t="n">
-        <v>48.89338144820737</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S21" t="n">
         <v>133.5813703291298</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>112.2284464638366</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>11.61260049965499</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -2326,16 +2326,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>259.400808687355</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>304.007403971462</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2481,25 +2481,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>133.5114010687427</v>
+        <v>259.7839755807928</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>94.3311305156637</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>164.606320280689</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>119.2137282546391</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>229.7065401296469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>82.94928992595869</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>167.7003943505558</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>354.5654092500438</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>128.1115535044846</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>129.6022067968812</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.4641411494252</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>304.007403971462</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>23.46469688151565</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>126.7690031786582</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>8.99309534804396</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>45.98403425310195</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>110.4854923835505</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
@@ -3568,7 +3568,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>70.99069090147016</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>65.517305451071</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>310.0392916174779</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>190.7940740877447</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>118.8592197488542</v>
+        <v>118.8592197488549</v>
       </c>
       <c r="H42" t="n">
         <v>87.41444223540508</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>116.8763835457725</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>176.4925410223831</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>18.60221822740271</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>8.994403805265465</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>65.51730545107105</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>113.1667354347867</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C2" t="n">
         <v>18.39687801105209</v>
@@ -4330,19 +4330,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K2" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L2" t="n">
-        <v>163.0466509198802</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M2" t="n">
         <v>279.6756096381168</v>
       </c>
       <c r="N2" t="n">
-        <v>279.6756096381168</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O2" t="n">
         <v>507.3369750248864</v>
@@ -4357,25 +4357,25 @@
         <v>881.8509868381266</v>
       </c>
       <c r="S2" t="n">
-        <v>715.3374317791771</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T2" t="n">
-        <v>491.8368293385938</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U2" t="n">
-        <v>259.553016067734</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="V2" t="n">
-        <v>27.26920279687423</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="W2" t="n">
-        <v>18.39687801105209</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="X2" t="n">
-        <v>18.39687801105209</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L3" t="n">
-        <v>18.39687801105209</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M3" t="n">
         <v>236.8598043922958</v>
       </c>
       <c r="N3" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="O3" t="n">
         <v>464.5211697790654</v>
-      </c>
-      <c r="O3" t="n">
-        <v>692.182535165835</v>
       </c>
       <c r="P3" t="n">
         <v>692.182535165835</v>
@@ -4442,19 +4442,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U3" t="n">
-        <v>919.8439005526046</v>
+        <v>839.6754200811793</v>
       </c>
       <c r="V3" t="n">
-        <v>768.9317528932077</v>
+        <v>617.1354184522463</v>
       </c>
       <c r="W3" t="n">
-        <v>538.8145070264945</v>
+        <v>387.0181725855332</v>
       </c>
       <c r="X3" t="n">
-        <v>349.5074293765062</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="Y3" t="n">
-        <v>170.1932124520134</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.77514818495013</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C4" t="n">
-        <v>48.77514818495013</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D4" t="n">
-        <v>48.77514818495013</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E4" t="n">
-        <v>48.77514818495013</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F4" t="n">
-        <v>48.77514818495013</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G4" t="n">
-        <v>48.77514818495013</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H4" t="n">
-        <v>48.77514818495013</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I4" t="n">
-        <v>48.77514818495013</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J4" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K4" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M4" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N4" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O4" t="n">
         <v>796.5455384059751</v>
@@ -4512,28 +4512,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S4" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T4" t="n">
-        <v>360.8430140968712</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U4" t="n">
-        <v>128.5592008260114</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V4" t="n">
-        <v>48.77514818495013</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W4" t="n">
-        <v>48.77514818495013</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X4" t="n">
-        <v>48.77514818495013</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.77514818495013</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="5">
@@ -4567,22 +4567,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J5" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K5" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L5" t="n">
-        <v>473.7196087845913</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M5" t="n">
-        <v>473.7196087845913</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="N5" t="n">
-        <v>473.7196087845913</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="O5" t="n">
-        <v>507.3369750248864</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="P5" t="n">
         <v>734.998340411656</v>
@@ -4591,25 +4591,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R5" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S5" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T5" t="n">
-        <v>881.8509868381266</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U5" t="n">
-        <v>715.2483178236314</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V5" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W5" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X5" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y5" t="n">
         <v>18.39687801105209</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169.0511084509599</v>
+        <v>768.3756071629947</v>
       </c>
       <c r="C6" t="n">
-        <v>18.39687801105209</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="D6" t="n">
-        <v>18.39687801105209</v>
+        <v>487.6324093445672</v>
       </c>
       <c r="E6" t="n">
-        <v>18.39687801105209</v>
+        <v>351.1859184554549</v>
       </c>
       <c r="F6" t="n">
-        <v>18.39687801105209</v>
+        <v>226.7541123385867</v>
       </c>
       <c r="G6" t="n">
-        <v>18.39687801105209</v>
+        <v>106.6942944104512</v>
       </c>
       <c r="H6" t="n">
         <v>18.39687801105209</v>
@@ -4646,19 +4646,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J6" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K6" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L6" t="n">
-        <v>586.8345910043187</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M6" t="n">
+        <v>464.5211697790654</v>
+      </c>
+      <c r="N6" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="N6" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="O6" t="n">
         <v>919.8439005526046</v>
@@ -4670,28 +4670,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R6" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S6" t="n">
-        <v>919.8439005526046</v>
+        <v>768.3756071629947</v>
       </c>
       <c r="T6" t="n">
-        <v>919.8439005526046</v>
+        <v>768.3756071629947</v>
       </c>
       <c r="U6" t="n">
-        <v>919.8439005526046</v>
+        <v>768.3756071629947</v>
       </c>
       <c r="V6" t="n">
-        <v>919.5859833331155</v>
+        <v>768.3756071629947</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4687374664023</v>
+        <v>768.3756071629947</v>
       </c>
       <c r="X6" t="n">
-        <v>500.161659816414</v>
+        <v>768.3756071629947</v>
       </c>
       <c r="Y6" t="n">
-        <v>320.8474428919212</v>
+        <v>768.3756071629947</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.9429111851817</v>
+        <v>188.6019959450629</v>
       </c>
       <c r="C7" t="n">
-        <v>795.9429111851817</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D7" t="n">
-        <v>795.9429111851817</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E7" t="n">
-        <v>662.9281132739598</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F7" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G7" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H7" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I7" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J7" t="n">
         <v>18.39687801105209</v>
@@ -4734,7 +4734,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M7" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N7" t="n">
         <v>633.8407713642671</v>
@@ -4743,34 +4743,34 @@
         <v>796.5455384059751</v>
       </c>
       <c r="P7" t="n">
-        <v>916.4217041825538</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q7" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>795.9429111851817</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S7" t="n">
-        <v>795.9429111851817</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T7" t="n">
-        <v>795.9429111851817</v>
+        <v>596.9220758197208</v>
       </c>
       <c r="U7" t="n">
-        <v>795.9429111851817</v>
+        <v>596.9220758197208</v>
       </c>
       <c r="V7" t="n">
-        <v>795.9429111851817</v>
+        <v>596.9220758197208</v>
       </c>
       <c r="W7" t="n">
-        <v>795.9429111851817</v>
+        <v>596.9220758197208</v>
       </c>
       <c r="X7" t="n">
-        <v>795.9429111851817</v>
+        <v>596.9220758197208</v>
       </c>
       <c r="Y7" t="n">
-        <v>795.9429111851817</v>
+        <v>373.8100146363641</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>297.5459297822121</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="C8" t="n">
-        <v>297.5459297822121</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D8" t="n">
-        <v>297.5459297822121</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="E8" t="n">
-        <v>297.5459297822121</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F8" t="n">
-        <v>297.5459297822121</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G8" t="n">
-        <v>297.5459297822121</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H8" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I8" t="n">
         <v>18.39687801105209</v>
@@ -4813,7 +4813,7 @@
         <v>18.39687801105209</v>
       </c>
       <c r="M8" t="n">
-        <v>246.0582433978217</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="N8" t="n">
         <v>279.6756096381168</v>
@@ -4831,25 +4831,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S8" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T8" t="n">
-        <v>529.8297430530719</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U8" t="n">
-        <v>297.5459297822121</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V8" t="n">
-        <v>297.5459297822121</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W8" t="n">
-        <v>297.5459297822121</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X8" t="n">
-        <v>297.5459297822121</v>
+        <v>455.276274010885</v>
       </c>
       <c r="Y8" t="n">
-        <v>297.5459297822121</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C9" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D9" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E9" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F9" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G9" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H9" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I9" t="n">
         <v>18.39687801105209</v>
@@ -4886,49 +4886,49 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K9" t="n">
+        <v>131.5118602307795</v>
+      </c>
+      <c r="L9" t="n">
         <v>359.1732256175491</v>
       </c>
-      <c r="L9" t="n">
-        <v>586.8345910043187</v>
-      </c>
       <c r="M9" t="n">
-        <v>692.182535165835</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N9" t="n">
-        <v>692.182535165835</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O9" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="P9" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q9" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R9" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S9" t="n">
-        <v>760.996180350538</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T9" t="n">
-        <v>584.0123685494465</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="U9" t="n">
-        <v>373.9492252280883</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="V9" t="n">
-        <v>247.0983489236333</v>
+        <v>385.3894100224489</v>
       </c>
       <c r="W9" t="n">
-        <v>247.0983489236333</v>
+        <v>359.5002901020018</v>
       </c>
       <c r="X9" t="n">
-        <v>247.0983489236333</v>
+        <v>170.1932124520134</v>
       </c>
       <c r="Y9" t="n">
-        <v>67.7841319991405</v>
+        <v>170.1932124520134</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C10" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D10" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E10" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F10" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G10" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H10" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I10" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J10" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K10" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L10" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M10" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N10" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O10" t="n">
         <v>796.5455384059751</v>
@@ -4986,28 +4986,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R10" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S10" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T10" t="n">
-        <v>360.8430140968712</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U10" t="n">
-        <v>128.5592008260114</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V10" t="n">
-        <v>18.39687801105208</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W10" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X10" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C11" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D11" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E11" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F11" t="n">
-        <v>455.276274010885</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G11" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H11" t="n">
         <v>18.39687801105209</v>
@@ -5041,19 +5041,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J11" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K11" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="L11" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="M11" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="N11" t="n">
         <v>279.6756096381168</v>
-      </c>
-      <c r="L11" t="n">
-        <v>507.3369750248864</v>
-      </c>
-      <c r="M11" t="n">
-        <v>507.3369750248864</v>
-      </c>
-      <c r="N11" t="n">
-        <v>507.3369750248864</v>
       </c>
       <c r="O11" t="n">
         <v>507.3369750248864</v>
@@ -5065,28 +5065,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R11" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S11" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T11" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U11" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V11" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W11" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X11" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y11" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>305.4975993400722</v>
+        <v>231.2626704580863</v>
       </c>
       <c r="C12" t="n">
-        <v>154.8433689001644</v>
+        <v>148.4858453895718</v>
       </c>
       <c r="D12" t="n">
-        <v>154.8433689001644</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E12" t="n">
         <v>18.39687801105209</v>
@@ -5120,22 +5120,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J12" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K12" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L12" t="n">
-        <v>131.5118602307795</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M12" t="n">
-        <v>359.1732256175491</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N12" t="n">
-        <v>586.8345910043187</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O12" t="n">
-        <v>586.8345910043187</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P12" t="n">
         <v>692.182535165835</v>
@@ -5147,25 +5147,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S12" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T12" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U12" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V12" t="n">
-        <v>919.8439005526046</v>
+        <v>562.3732218235405</v>
       </c>
       <c r="W12" t="n">
-        <v>825.9152283555145</v>
+        <v>562.3732218235405</v>
       </c>
       <c r="X12" t="n">
-        <v>636.6081507055262</v>
+        <v>562.3732218235405</v>
       </c>
       <c r="Y12" t="n">
-        <v>457.2939337810335</v>
+        <v>383.0590048990477</v>
       </c>
     </row>
     <row r="13">
@@ -5223,19 +5223,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R13" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S13" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T13" t="n">
-        <v>360.8430140968712</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U13" t="n">
-        <v>128.5592008260114</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V13" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W13" t="n">
         <v>18.39687801105209</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C14" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D14" t="n">
-        <v>715.2483178236314</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E14" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F14" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G14" t="n">
         <v>18.39687801105209</v>
@@ -5281,22 +5281,22 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K14" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L14" t="n">
-        <v>390.7080163066498</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M14" t="n">
-        <v>390.7080163066498</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N14" t="n">
-        <v>618.3693816934194</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O14" t="n">
-        <v>618.3693816934194</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P14" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q14" t="n">
         <v>919.8439005526046</v>
@@ -5314,16 +5314,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V14" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="W14" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="X14" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y14" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.39687801105209</v>
+        <v>305.4975993400722</v>
       </c>
       <c r="C15" t="n">
-        <v>18.39687801105209</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="D15" t="n">
-        <v>18.39687801105209</v>
+        <v>154.8433689001644</v>
       </c>
       <c r="E15" t="n">
         <v>18.39687801105209</v>
@@ -5360,19 +5360,19 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K15" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L15" t="n">
-        <v>359.1732256175491</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M15" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O15" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P15" t="n">
         <v>919.8439005526046</v>
@@ -5381,28 +5381,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R15" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S15" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T15" t="n">
-        <v>919.8439005526046</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="U15" t="n">
-        <v>709.7807572312464</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="V15" t="n">
-        <v>487.2407556023135</v>
+        <v>687.4111796477466</v>
       </c>
       <c r="W15" t="n">
-        <v>257.1235097356004</v>
+        <v>457.2939337810335</v>
       </c>
       <c r="X15" t="n">
-        <v>67.81643208561201</v>
+        <v>457.2939337810335</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.39687801105209</v>
+        <v>457.2939337810335</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D16" t="n">
-        <v>818.4869254147573</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E16" t="n">
-        <v>662.9281132739598</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F16" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G16" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H16" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I16" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J16" t="n">
         <v>18.39687801105209</v>
@@ -5463,25 +5463,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S16" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T16" t="n">
-        <v>919.8439005526046</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="U16" t="n">
-        <v>919.8439005526046</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="V16" t="n">
-        <v>919.8439005526046</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="W16" t="n">
-        <v>919.8439005526046</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="X16" t="n">
-        <v>919.8439005526046</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="Y16" t="n">
-        <v>919.8439005526046</v>
+        <v>29.34812901007768</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1965.153759365782</v>
+        <v>1349.444135413123</v>
       </c>
       <c r="C17" t="n">
-        <v>1571.978257868713</v>
+        <v>956.2686339160537</v>
       </c>
       <c r="D17" t="n">
-        <v>1186.537129085381</v>
+        <v>570.8275051327214</v>
       </c>
       <c r="E17" t="n">
-        <v>783.9536042019251</v>
+        <v>570.8275051327214</v>
       </c>
       <c r="F17" t="n">
-        <v>367.0591657319029</v>
+        <v>153.9330666626992</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154359</v>
+        <v>153.9330666626992</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>153.9330666626992</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>1397.797620547389</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N17" t="n">
-        <v>1925.608904184851</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.648505077179</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.648505077179</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.648505077179</v>
+        <v>1738.896740480066</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.648505077179</v>
+        <v>1349.444135413123</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.648505077179</v>
+        <v>1349.444135413123</v>
       </c>
     </row>
     <row r="18">
@@ -5570,55 +5570,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
         <v>2206.800784875113</v>
@@ -5636,10 +5636,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825357</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>405.5706623673549</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>405.5706623673549</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>405.5706623673549</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>250.0118502265574</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>250.0118502265574</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>81.75779632600293</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>81.75779632600293</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5697,28 +5697,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>824.8590032756731</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="S19" t="n">
-        <v>824.8590032756731</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="T19" t="n">
-        <v>824.8590032756731</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U19" t="n">
-        <v>824.8590032756731</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V19" t="n">
-        <v>824.8590032756731</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>590.7786810586562</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>590.7786810586562</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1190.873983888531</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="C20" t="n">
-        <v>1190.873983888531</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="D20" t="n">
-        <v>1190.873983888531</v>
+        <v>1334.440489228914</v>
       </c>
       <c r="E20" t="n">
-        <v>788.2904590050753</v>
+        <v>931.8569643454584</v>
       </c>
       <c r="F20" t="n">
-        <v>371.396020535053</v>
+        <v>514.9625258754362</v>
       </c>
       <c r="G20" t="n">
-        <v>371.396020535053</v>
+        <v>101.7997703634393</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>864.7645682749184</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>864.7645682749184</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>1392.57585191238</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O20" t="n">
-        <v>1832.615452804709</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P20" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T20" t="n">
-        <v>2142.147902636596</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U20" t="n">
-        <v>2142.147902636596</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V20" t="n">
-        <v>1951.325623987187</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W20" t="n">
-        <v>1580.326588955474</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X20" t="n">
-        <v>1190.873983888531</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="Y20" t="n">
-        <v>1190.873983888531</v>
+        <v>1719.881618012246</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
         <v>160.427952321271</v>
@@ -5840,19 +5840,19 @@
         <v>480.1670983834974</v>
       </c>
       <c r="M21" t="n">
-        <v>623.6437572083082</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N21" t="n">
-        <v>1209.14176221491</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O21" t="n">
-        <v>1725.662044805891</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P21" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
         <v>2341.731461975244</v>
@@ -5873,10 +5873,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825357</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>528.7100132738371</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C22" t="n">
-        <v>358.5048953398264</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D22" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5934,28 +5934,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S22" t="n">
-        <v>948.7599926430961</v>
+        <v>711.4969361404846</v>
       </c>
       <c r="T22" t="n">
-        <v>948.7599926430961</v>
+        <v>711.4969361404846</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>426.0581443823855</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>426.0581443823855</v>
       </c>
       <c r="W22" t="n">
-        <v>948.7599926430961</v>
+        <v>426.0581443823855</v>
       </c>
       <c r="X22" t="n">
-        <v>937.0300931484951</v>
+        <v>426.0581443823855</v>
       </c>
       <c r="Y22" t="n">
-        <v>713.9180319651384</v>
+        <v>202.9460831990289</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2058.57031924742</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="C23" t="n">
-        <v>1665.394817750351</v>
+        <v>694.7751177609921</v>
       </c>
       <c r="D23" t="n">
-        <v>1279.953688967018</v>
+        <v>309.3339889776598</v>
       </c>
       <c r="E23" t="n">
-        <v>877.3701640835627</v>
+        <v>309.3339889776598</v>
       </c>
       <c r="F23" t="n">
-        <v>460.4757256135405</v>
+        <v>309.3339889776598</v>
       </c>
       <c r="G23" t="n">
-        <v>47.31297010154359</v>
+        <v>309.3339889776598</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O23" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.648505077179</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V23" t="n">
-        <v>2365.648505077179</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W23" t="n">
-        <v>2365.648505077179</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X23" t="n">
-        <v>2058.57031924742</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y23" t="n">
-        <v>2058.57031924742</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C24" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D24" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E24" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F24" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G24" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J24" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K24" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L24" t="n">
         <v>963.7331842818107</v>
@@ -6080,31 +6080,31 @@
         <v>1549.231189288413</v>
       </c>
       <c r="N24" t="n">
-        <v>1849.128222486198</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O24" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q24" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R24" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S24" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T24" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U24" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V24" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W24" t="n">
         <v>1367.096582257017</v>
@@ -6113,7 +6113,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="25">
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
         <v>479.5672294235493</v>
@@ -6174,25 +6174,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="T25" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U25" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V25" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1604.036739400527</v>
+        <v>1297.757791109376</v>
       </c>
       <c r="C26" t="n">
-        <v>1604.036739400527</v>
+        <v>1297.757791109376</v>
       </c>
       <c r="D26" t="n">
-        <v>1604.036739400527</v>
+        <v>912.3166623260436</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.453214517072</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F26" t="n">
-        <v>784.5587760470498</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G26" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>1489.649729308197</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.648505077179</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U26" t="n">
-        <v>2109.895775511778</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V26" t="n">
-        <v>2109.895775511778</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W26" t="n">
-        <v>1738.896740480066</v>
+        <v>1956.65655633099</v>
       </c>
       <c r="X26" t="n">
-        <v>1604.036739400527</v>
+        <v>1694.248500188775</v>
       </c>
       <c r="Y26" t="n">
-        <v>1604.036739400527</v>
+        <v>1297.757791109376</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.3129701015436</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L27" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M27" t="n">
-        <v>850.6182020620834</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N27" t="n">
-        <v>1436.116207068685</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O27" t="n">
-        <v>1952.636489659666</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.257858376064</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6350,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1943.647461674464</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="C28" t="n">
-        <v>1943.647461674464</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D28" t="n">
-        <v>1788.014348576979</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>1632.455536436181</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>1632.455536436181</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2241.747515709756</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S28" t="n">
-        <v>2038.931431892306</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T28" t="n">
-        <v>1943.647461674464</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U28" t="n">
-        <v>1943.647461674464</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V28" t="n">
-        <v>1943.647461674464</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="W28" t="n">
-        <v>1943.647461674464</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="X28" t="n">
-        <v>1943.647461674464</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="Y28" t="n">
-        <v>1943.647461674464</v>
+        <v>373.1512011330396</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1989.47786818386</v>
+        <v>857.3829100686353</v>
       </c>
       <c r="C29" t="n">
-        <v>1989.47786818386</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="D29" t="n">
-        <v>1604.036739400527</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.453214517072</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F29" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G29" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
         <v>191.9627430103717</v>
@@ -6478,37 +6478,37 @@
         <v>2118.077574438405</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U29" t="n">
-        <v>2109.895775511778</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V29" t="n">
-        <v>1989.47786818386</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="W29" t="n">
-        <v>1989.47786818386</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="X29" t="n">
-        <v>1989.47786818386</v>
+        <v>1654.368364859431</v>
       </c>
       <c r="Y29" t="n">
-        <v>1989.47786818386</v>
+        <v>1257.877655780032</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H30" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I30" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>47.3129701015436</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K30" t="n">
-        <v>47.3129701015436</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L30" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>858.0088487631988</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O30" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6587,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>371.045575040604</v>
+        <v>131.100131642916</v>
       </c>
       <c r="C31" t="n">
-        <v>371.045575040604</v>
+        <v>131.100131642916</v>
       </c>
       <c r="D31" t="n">
-        <v>371.045575040604</v>
+        <v>131.100131642916</v>
       </c>
       <c r="E31" t="n">
-        <v>371.045575040604</v>
+        <v>131.100131642916</v>
       </c>
       <c r="F31" t="n">
-        <v>371.045575040604</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6645,28 +6645,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S31" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T31" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U31" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V31" t="n">
-        <v>779.365654915262</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W31" t="n">
-        <v>779.365654915262</v>
+        <v>539.420211517574</v>
       </c>
       <c r="X31" t="n">
-        <v>779.365654915262</v>
+        <v>539.420211517574</v>
       </c>
       <c r="Y31" t="n">
-        <v>556.2535937319053</v>
+        <v>316.3081503342173</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1665.394817750351</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="C32" t="n">
-        <v>1665.394817750351</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="D32" t="n">
-        <v>1279.953688967018</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E32" t="n">
         <v>877.3701640835627</v>
@@ -6691,61 +6691,61 @@
         <v>460.4757256135405</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V32" t="n">
-        <v>2023.541695780698</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W32" t="n">
-        <v>2023.541695780698</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X32" t="n">
-        <v>1665.394817750351</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="Y32" t="n">
-        <v>1665.394817750351</v>
+        <v>877.3701640835627</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H33" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I33" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J33" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K33" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L33" t="n">
-        <v>643.9940382195842</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>1209.14176221491</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N33" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O33" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P33" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W33" t="n">
         <v>1367.096582257017</v>
@@ -6824,7 +6824,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2082.318103008357</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C34" t="n">
-        <v>2082.318103008357</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>2082.318103008357</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>2082.318103008357</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>1951.406783011507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>1783.152729110953</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>1627.674178072447</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>1494.579752709525</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N34" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O34" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P34" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q34" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T34" t="n">
-        <v>2365.648505077179</v>
+        <v>726.06894097701</v>
       </c>
       <c r="U34" t="n">
-        <v>2365.648505077179</v>
+        <v>440.630149218911</v>
       </c>
       <c r="V34" t="n">
-        <v>2365.648505077179</v>
+        <v>440.630149218911</v>
       </c>
       <c r="W34" t="n">
-        <v>2082.318103008357</v>
+        <v>440.630149218911</v>
       </c>
       <c r="X34" t="n">
-        <v>2082.318103008357</v>
+        <v>440.630149218911</v>
       </c>
       <c r="Y34" t="n">
-        <v>2082.318103008357</v>
+        <v>217.5180880355544</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2058.57031924742</v>
+        <v>950.3292899343434</v>
       </c>
       <c r="C35" t="n">
-        <v>1665.394817750351</v>
+        <v>950.3292899343434</v>
       </c>
       <c r="D35" t="n">
-        <v>1279.953688967018</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="E35" t="n">
-        <v>877.3701640835627</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="F35" t="n">
-        <v>460.4757256135405</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>550.9450990378335</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L35" t="n">
-        <v>1044.265390756362</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M35" t="n">
-        <v>1590.266290800943</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N35" t="n">
-        <v>2118.077574438405</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.648505077179</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W35" t="n">
-        <v>2365.648505077179</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X35" t="n">
-        <v>2365.648505077179</v>
+        <v>950.3292899343434</v>
       </c>
       <c r="Y35" t="n">
-        <v>2365.648505077179</v>
+        <v>950.3292899343434</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H36" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154358</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K36" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M36" t="n">
-        <v>858.0088487631988</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769801</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7061,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="37">
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>824.8590032756731</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="C37" t="n">
-        <v>654.6538853416623</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="D37" t="n">
-        <v>654.6538853416623</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E37" t="n">
-        <v>499.0950732008648</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F37" t="n">
-        <v>371.045575040604</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
         <v>479.5672294235493</v>
@@ -7122,25 +7122,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S37" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T37" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U37" t="n">
-        <v>824.8590032756731</v>
+        <v>612.9589847632286</v>
       </c>
       <c r="V37" t="n">
-        <v>824.8590032756731</v>
+        <v>612.9589847632286</v>
       </c>
       <c r="W37" t="n">
-        <v>824.8590032756731</v>
+        <v>612.9589847632286</v>
       </c>
       <c r="X37" t="n">
-        <v>824.8590032756731</v>
+        <v>612.9589847632286</v>
       </c>
       <c r="Y37" t="n">
-        <v>824.8590032756731</v>
+        <v>389.8469235798719</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>969.3444124021627</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="C38" t="n">
-        <v>969.3444124021627</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="D38" t="n">
-        <v>969.3444124021627</v>
+        <v>621.3346449007199</v>
       </c>
       <c r="E38" t="n">
-        <v>969.3444124021627</v>
+        <v>621.3346449007199</v>
       </c>
       <c r="F38" t="n">
-        <v>922.895892954585</v>
+        <v>621.3346449007199</v>
       </c>
       <c r="G38" t="n">
         <v>509.7331374425881</v>
@@ -7171,55 +7171,55 @@
         <v>185.6500870090788</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M38" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N38" t="n">
-        <v>1577.421412053329</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O38" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S38" t="n">
-        <v>2327.655591362701</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T38" t="n">
-        <v>2327.655591362701</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U38" t="n">
-        <v>2071.9028617973</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V38" t="n">
-        <v>1729.796052500818</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W38" t="n">
-        <v>1358.797017469106</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X38" t="n">
-        <v>969.3444124021627</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="Y38" t="n">
-        <v>969.3444124021627</v>
+        <v>1006.775773684052</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H39" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I39" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J39" t="n">
-        <v>47.3129701015436</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K39" t="n">
-        <v>47.3129701015436</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L39" t="n">
-        <v>47.3129701015436</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>632.8109751081455</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N39" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O39" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P39" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7298,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.5519739517948</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>763.5519739517948</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>763.5519739517948</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7356,28 +7356,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S40" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T40" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U40" t="n">
-        <v>948.7599926430961</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="V40" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="W40" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X40" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y40" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1969.157795997781</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="C41" t="n">
-        <v>1575.982294500711</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D41" t="n">
-        <v>1190.541165717379</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E41" t="n">
-        <v>877.3701640835627</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F41" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L41" t="n">
-        <v>503.6092283712866</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M41" t="n">
-        <v>1049.610128415867</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N41" t="n">
-        <v>1577.421412053329</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O41" t="n">
-        <v>2017.461012945658</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.648505077179</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.648505077179</v>
+        <v>1185.053521758447</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.648505077179</v>
+        <v>1185.053521758447</v>
       </c>
       <c r="Y41" t="n">
-        <v>1969.157795997781</v>
+        <v>1185.053521758447</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G42" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
         <v>160.427952321271</v>
@@ -7499,43 +7499,43 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>963.7331842818107</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N42" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1582.258435612164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C43" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D43" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E43" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F43" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N43" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O43" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P43" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q43" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V43" t="n">
-        <v>2099.669159898004</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="W43" t="n">
-        <v>1816.338757829181</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X43" t="n">
-        <v>1582.258435612164</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y43" t="n">
-        <v>1582.258435612164</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1228.513125265401</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="C44" t="n">
-        <v>835.3376237683314</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="D44" t="n">
-        <v>449.8964949849991</v>
+        <v>621.3346449007199</v>
       </c>
       <c r="E44" t="n">
-        <v>47.31297010154359</v>
+        <v>602.544525479101</v>
       </c>
       <c r="F44" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
         <v>191.9627430103717</v>
@@ -7660,40 +7660,40 @@
         <v>1590.266290800943</v>
       </c>
       <c r="N44" t="n">
-        <v>1925.608904184851</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2356.563248708224</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2356.563248708224</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T44" t="n">
-        <v>2356.563248708224</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U44" t="n">
-        <v>2356.563248708224</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V44" t="n">
-        <v>2014.456439411743</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W44" t="n">
-        <v>2014.456439411743</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X44" t="n">
-        <v>1625.0038343448</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="Y44" t="n">
-        <v>1228.513125265401</v>
+        <v>1006.775773684052</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D45" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G45" t="n">
-        <v>184.997640489031</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963194</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154356</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154356</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K45" t="n">
-        <v>367.05211616377</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L45" t="n">
-        <v>850.6182020620832</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>1209.14176221491</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N45" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W45" t="n">
         <v>1367.096582257017</v>
@@ -7772,7 +7772,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825358</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7830,28 +7830,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S46" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T46" t="n">
-        <v>713.0409408113302</v>
+        <v>555.8638230429992</v>
       </c>
       <c r="U46" t="n">
-        <v>427.6021490532311</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6228038740554</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="W46" t="n">
-        <v>47.31297010154359</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154359</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M2" t="n">
-        <v>267.5320806060471</v>
+        <v>183.681987193985</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O2" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>380.2624223790764</v>
@@ -8063,19 +8063,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>310.7299694642351</v>
       </c>
       <c r="M3" t="n">
-        <v>313.0567446566288</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q3" t="n">
         <v>320.9491282940651</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>373.0193783173885</v>
       </c>
       <c r="L5" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>183.5207730203541</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>380.2624223790764</v>
+        <v>268.108476249245</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8294,22 +8294,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>319.5579104714845</v>
+        <v>310.2665579406502</v>
       </c>
       <c r="L6" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M6" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>315.3330879923178</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8461,10 +8461,10 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>379.6860267358784</v>
+        <v>183.681987193985</v>
       </c>
       <c r="N8" t="n">
-        <v>183.0754269340418</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O8" t="n">
         <v>379.5248125622476</v>
@@ -8534,25 +8534,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M9" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q9" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>260.8654321875572</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N11" t="n">
-        <v>149.1184913377841</v>
+        <v>183.0754269340418</v>
       </c>
       <c r="O11" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P11" t="n">
         <v>380.2624223790764</v>
@@ -8768,25 +8768,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M12" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N12" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>193.4954296289271</v>
+        <v>307.7529874266315</v>
       </c>
       <c r="Q12" t="n">
         <v>320.9491282940651</v>
@@ -8929,13 +8929,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L14" t="n">
-        <v>383.2091448686429</v>
+        <v>227.8069106117196</v>
       </c>
       <c r="M14" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N14" t="n">
         <v>379.0794664759352</v>
@@ -8944,10 +8944,10 @@
         <v>149.5638374240964</v>
       </c>
       <c r="P14" t="n">
-        <v>268.108476249245</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9008,22 +9008,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L15" t="n">
-        <v>320.0213219950694</v>
+        <v>196.4724116665307</v>
       </c>
       <c r="M15" t="n">
-        <v>198.7991868589244</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O15" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9172,13 +9172,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>652.9391957389944</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P17" t="n">
         <v>150.3014472409252</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>179.0738312465417</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
-        <v>616.3484143223229</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>213.6604073397399</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9488,16 +9488,16 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>237.3130400541713</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9649,13 +9649,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N23" t="n">
-        <v>682.2612020826953</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O23" t="n">
-        <v>194.041828753471</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
         <v>144.4986984183922</v>
@@ -9725,13 +9725,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>388.2984090135462</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P24" t="n">
         <v>87.08336481931465</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>505.666843611017</v>
@@ -9883,16 +9883,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>701.2411122488187</v>
+        <v>599.6082218521052</v>
       </c>
       <c r="N26" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600587</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
         <v>144.4986984183922</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9962,10 +9962,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>98.45345285401062</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10126,7 +10126,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>399.6354845339695</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P29" t="n">
         <v>150.3014472409252</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>422.8212561536977</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
         <v>651.5514946987026</v>
@@ -10363,10 +10363,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>318.4970894367924</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
@@ -10430,25 +10430,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>663.2434089132774</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10588,7 +10588,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>311.2540453751045</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
@@ -10600,7 +10600,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
         <v>150.3014472409252</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10673,13 +10673,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>99.8524217474083</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234615</v>
+        <v>500.3175139373686</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>311.2540453751045</v>
       </c>
       <c r="L38" t="n">
         <v>651.5514946987026</v>
@@ -10834,13 +10834,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>282.2547480662832</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
         <v>144.4986984183922</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
-        <v>667.5244230630199</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
-        <v>251.5450406822908</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11077,7 +11077,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>318.4970894367924</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
@@ -11147,19 +11147,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118428</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11308,10 +11308,10 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>487.848403846782</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P44" t="n">
         <v>150.3014472409252</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,19 +11384,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>454.5321323046927</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>358.5054431434315</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>220.6214366919235</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -22682,10 +22682,10 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>128.5957162214335</v>
       </c>
       <c r="V3" t="n">
-        <v>70.91157542984064</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22728,7 +22728,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>3.400886175297046</v>
+        <v>30.81223441176471</v>
       </c>
       <c r="U4" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V4" t="n">
-        <v>184.3333396127333</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>18.71596951449399</v>
       </c>
       <c r="U5" t="n">
-        <v>88.25855994539717</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V5" t="n">
         <v>108.7247660653656</v>
@@ -22852,7 +22852,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22862,25 +22862,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -22910,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>7.30563254433207</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -22922,16 +22922,16 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.0592635653493</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>22.31857408727976</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>114.4571778071694</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -23010,7 +23010,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23029,7 +23029,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>196.0080627329375</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -23038,10 +23038,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>181.4384044141857</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>23.23422713159621</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>149.1476881355087</v>
@@ -23120,7 +23120,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23156,19 +23156,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>94.73223407123319</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>227.816073408046</v>
+        <v>202.1858446868033</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="10">
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>3.400886175297046</v>
+        <v>30.81223441176471</v>
       </c>
       <c r="U10" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V10" t="n">
-        <v>154.2588521405742</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23260,7 +23260,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23269,13 +23269,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>118.2925930274908</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
@@ -23314,19 +23314,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>88.25855994539717</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y11" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23339,13 +23339,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>67.19863131767926</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
@@ -23387,7 +23387,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>175.2139736830806</v>
@@ -23396,13 +23396,13 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>134.8266879329268</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>3.400886175297046</v>
+        <v>30.81223441176471</v>
       </c>
       <c r="U13" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V13" t="n">
-        <v>154.2588521405743</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23497,19 +23497,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D14" t="n">
-        <v>179.0370905938154</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E14" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23554,13 +23554,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>136.1361143018333</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T15" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>189.0980542708309</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>128.5957162214335</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>172.5142000153529</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
@@ -23718,10 +23718,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>92.48239428282119</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>31.39985014291582</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23898,19 +23898,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I19" t="n">
-        <v>97.66310314707815</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>56.63048077364812</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
@@ -23946,16 +23946,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23974,7 +23974,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>266.9002876698975</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24019,22 +24019,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>149.7716853406016</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>88.55947651543956</v>
       </c>
       <c r="T22" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24192,7 +24192,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>220.1269184951917</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>61.4414112418192</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>81.55067504481173</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24369,25 +24369,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>134.7564242791754</v>
       </c>
       <c r="T25" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24448,22 +24448,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
@@ -24499,7 +24499,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>252.0466779475311</v>
+        <v>125.7741034354809</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>139.0307307977845</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>98.71323144669503</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24733,22 +24733,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>219.4720129488776</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>155.8515388866268</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24849,13 +24849,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>72.80338551319808</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
@@ -24894,10 +24894,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>95.61915737682824</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -24922,10 +24922,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>30.99266976622988</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>264.4142484841203</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25086,19 +25086,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>26.1504686422756</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>12.89772016402299</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>92.48239428282091</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>358.1220206139833</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>28.98367226049861</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
         <v>131.7634811092929</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>273.5913084924741</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25380,7 +25380,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,16 +25396,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>366.7414598322201</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>298.5456355733264</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25557,22 +25557,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>83.01253311791935</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>197.802246276313</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25617,7 +25617,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>88.51839801714294</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25678,25 +25678,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>176.4949705936507</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>51.62668320889819</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>104.004557025751</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,16 +25867,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>379.9554714072182</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
@@ -25885,7 +25885,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>28.61858077206782</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>167.8445558623771</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>420879.701030434</v>
+        <v>420879.7010304341</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>677577.3928281165</v>
+        <v>677577.3928281174</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>677577.3928281165</v>
+        <v>677577.3928281174</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677577.3928281168</v>
+        <v>677577.392828117</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677577.3928281169</v>
+        <v>677577.3928281172</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677577.392828117</v>
+        <v>677577.3928281175</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677577.3928281168</v>
+        <v>677577.3928281169</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677577.3928281168</v>
+        <v>677577.3928281175</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677577.3928281169</v>
+        <v>677577.3928281175</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>677577.3928281174</v>
+        <v>677577.3928281175</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70146.61683840569</v>
+        <v>70146.61683840567</v>
       </c>
       <c r="C2" t="n">
         <v>70146.61683840568</v>
       </c>
       <c r="D2" t="n">
-        <v>70146.61683840568</v>
+        <v>70146.61683840565</v>
       </c>
       <c r="E2" t="n">
-        <v>70146.61683840568</v>
+        <v>70146.61683840565</v>
       </c>
       <c r="F2" t="n">
-        <v>70146.61683840568</v>
+        <v>70146.61683840564</v>
       </c>
       <c r="G2" t="n">
         <v>112929.5654713528</v>
       </c>
       <c r="H2" t="n">
-        <v>112929.5654713528</v>
+        <v>112929.5654713529</v>
       </c>
       <c r="I2" t="n">
         <v>112929.5654713528</v>
@@ -26346,13 +26346,13 @@
         <v>112929.5654713528</v>
       </c>
       <c r="M2" t="n">
-        <v>112929.5654713528</v>
+        <v>112929.5654713529</v>
       </c>
       <c r="N2" t="n">
-        <v>112929.5654713528</v>
+        <v>112929.5654713529</v>
       </c>
       <c r="O2" t="n">
-        <v>112929.5654713528</v>
+        <v>112929.5654713529</v>
       </c>
       <c r="P2" t="n">
         <v>112929.5654713528</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99068.33875777952</v>
+        <v>99068.33875777958</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60167.90937904642</v>
+        <v>60167.90937904643</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>86983.58097086086</v>
+        <v>86983.58097086092</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>199.4110080167677</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>13981.62728839959</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54727.23332923328</v>
+        <v>-55829.08894178282</v>
       </c>
       <c r="C6" t="n">
-        <v>22337.97854198932</v>
+        <v>21236.1229294398</v>
       </c>
       <c r="D6" t="n">
-        <v>22337.97854198932</v>
+        <v>21236.12292943977</v>
       </c>
       <c r="E6" t="n">
-        <v>55965.57854198932</v>
+        <v>54863.72292943978</v>
       </c>
       <c r="F6" t="n">
-        <v>55965.57854198932</v>
+        <v>54863.72292943976</v>
       </c>
       <c r="G6" t="n">
-        <v>-22557.95126633925</v>
+        <v>-23231.97739255934</v>
       </c>
       <c r="H6" t="n">
-        <v>76510.38749144028</v>
+        <v>75836.36136522026</v>
       </c>
       <c r="I6" t="n">
-        <v>76510.38749144025</v>
+        <v>75836.3613652202</v>
       </c>
       <c r="J6" t="n">
-        <v>16342.47811239384</v>
+        <v>15668.45198617376</v>
       </c>
       <c r="K6" t="n">
-        <v>76510.38749144028</v>
+        <v>75836.36136522023</v>
       </c>
       <c r="L6" t="n">
-        <v>76510.38749144028</v>
+        <v>75836.36136522023</v>
       </c>
       <c r="M6" t="n">
-        <v>76510.38749144028</v>
+        <v>75836.36136522025</v>
       </c>
       <c r="N6" t="n">
-        <v>76510.38749144028</v>
+        <v>75836.36136522025</v>
       </c>
       <c r="O6" t="n">
-        <v>-10473.1934794206</v>
+        <v>-11147.21960564066</v>
       </c>
       <c r="P6" t="n">
-        <v>76510.38749144025</v>
+        <v>75836.36136522023</v>
       </c>
     </row>
   </sheetData>
@@ -26804,34 +26804,34 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.4511511311437</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M2" t="n">
-        <v>117.8070290083198</v>
+        <v>33.9569355962577</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>229.9609751381512</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M3" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q3" t="n">
         <v>229.9609751381512</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>33.95693559625767</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>229.9609751381512</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="L6" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M6" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35181,10 +35181,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>33.95693559625769</v>
+      </c>
+      <c r="N8" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N8" t="n">
-        <v>33.9569355962577</v>
       </c>
       <c r="O8" t="n">
         <v>229.9609751381512</v>
@@ -35254,25 +35254,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>106.4120648096125</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q9" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>33.9569355962577</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P11" t="n">
         <v>229.9609751381512</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M12" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N12" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>106.4120648096125</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="Q12" t="n">
         <v>229.9609751381512</v>
@@ -35649,13 +35649,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L14" t="n">
+        <v>74.55874088122788</v>
+      </c>
+      <c r="M14" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>229.9609751381512</v>
@@ -35664,10 +35664,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L15" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="M15" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M15" t="n">
-        <v>106.4120648096125</v>
-      </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O15" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35892,13 +35892,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>503.2141441412671</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>93.701718392375</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
-        <v>463.1002445918313</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36208,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>144.9259180048594</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36369,13 +36369,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O23" t="n">
-        <v>44.47799132937455</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>302.9262961593795</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36603,16 +36603,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>449.8831702543779</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359623</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36682,10 +36682,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.465299698096623</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>250.0716471098731</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>330.4341341043858</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37083,10 +37083,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>570.8562868639656</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37320,7 +37320,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37393,13 +37393,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>7.465299698096393</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692948</v>
+        <v>414.9454010832019</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
@@ -37554,13 +37554,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>133.1362567284992</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
-        <v>582.1523102088532</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>98.29687095179912</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37797,7 +37797,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576762</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,10 +38028,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>338.729912508998</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38104,19 +38104,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>362.1450102553807</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
